--- a/CodeBook_10_19_2020.xlsx
+++ b/CodeBook_10_19_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F224DC9-F9C1-374B-8CC1-DC2B58C5877F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F015B-24F1-1A44-8532-3A00C41572D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>Closed day cares</t>
-  </si>
-  <si>
-    <t>Date closed K-12 schools</t>
   </si>
   <si>
     <t>State of emergency</t>
@@ -1245,9 +1242,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>The date a state closed K-12 schools statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
-  </si>
-  <si>
     <t>The date a state closed daycares statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
   </si>
   <si>
@@ -1966,6 +1960,12 @@
   </si>
   <si>
     <t>Some of these states had suggestions to halt elective procedures and later released guidelines to reopen. One, GA, explicitly ordered that medical providers open. </t>
+  </si>
+  <si>
+    <t>Date closed K-12 public schools</t>
+  </si>
+  <si>
+    <t>The date a state closed K-12 public schools statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
   </si>
 </sst>
 </file>
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -2538,45 +2538,45 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -2587,16 +2587,16 @@
     </row>
     <row r="3" spans="1:9" ht="409.6">
       <c r="A3" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2605,47 +2605,47 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="328">
       <c r="A4" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>33</v>
@@ -2657,20 +2657,20 @@
         <v>4</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="75">
       <c r="A6" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>627</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>388</v>
+        <v>628</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
@@ -2682,22 +2682,22 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45">
       <c r="A7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>31</v>
@@ -2709,22 +2709,22 @@
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
@@ -2736,20 +2736,20 @@
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="A9" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -2761,22 +2761,22 @@
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="A10" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>29</v>
@@ -2788,22 +2788,22 @@
         <v>4</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="90">
       <c r="A11" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>29</v>
@@ -2815,20 +2815,20 @@
         <v>4</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="A12" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>29</v>
@@ -2840,22 +2840,22 @@
         <v>4</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="A13" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
@@ -2867,22 +2867,22 @@
         <v>4</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
       <c r="A14" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>30</v>
@@ -2894,22 +2894,22 @@
         <v>4</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="90">
       <c r="A15" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>29</v>
@@ -2921,22 +2921,22 @@
         <v>3</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="90">
       <c r="A16" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
@@ -2948,22 +2948,22 @@
         <v>4</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
@@ -2975,22 +2975,22 @@
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="30">
       <c r="A18" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
@@ -3002,22 +3002,22 @@
         <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="28">
       <c r="A19" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>28</v>
@@ -3029,22 +3029,22 @@
         <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="56">
       <c r="A20" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>462</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>464</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>28</v>
@@ -3056,20 +3056,20 @@
         <v>4</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="70">
       <c r="A21" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>466</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>468</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>28</v>
@@ -3081,20 +3081,20 @@
         <v>4</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="60">
       <c r="A22" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>28</v>
@@ -3106,20 +3106,20 @@
         <v>4</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>27</v>
@@ -3131,22 +3131,22 @@
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>27</v>
@@ -3158,20 +3158,20 @@
         <v>4</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>27</v>
@@ -3183,20 +3183,20 @@
         <v>4</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>27</v>
@@ -3208,24 +3208,24 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I26" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45">
       <c r="A27" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>26</v>
@@ -3237,20 +3237,20 @@
         <v>4</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="45">
       <c r="A28" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -3262,20 +3262,20 @@
         <v>4</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="60">
       <c r="A29" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>25</v>
@@ -3287,22 +3287,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="45">
       <c r="A30" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>26</v>
@@ -3314,20 +3314,20 @@
         <v>4</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="45">
       <c r="A31" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>25</v>
@@ -3339,20 +3339,20 @@
         <v>4</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="45">
       <c r="A32" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>26</v>
@@ -3364,20 +3364,20 @@
         <v>4</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="45">
       <c r="A33" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>25</v>
@@ -3389,20 +3389,20 @@
         <v>4</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="90">
       <c r="A34" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>26</v>
@@ -3414,20 +3414,20 @@
         <v>4</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" ht="75">
       <c r="A35" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>25</v>
@@ -3439,20 +3439,20 @@
         <v>4</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" ht="45">
       <c r="A36" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>25</v>
@@ -3464,20 +3464,20 @@
         <v>4</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="45">
       <c r="A37" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>25</v>
@@ -3489,20 +3489,20 @@
         <v>4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>25</v>
@@ -3514,22 +3514,22 @@
         <v>4</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90">
       <c r="A39" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>24</v>
@@ -3541,22 +3541,22 @@
         <v>4</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
       <c r="A40" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>24</v>
@@ -3568,22 +3568,22 @@
         <v>4</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="60">
       <c r="A41" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>24</v>
@@ -3595,22 +3595,22 @@
         <v>4</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75">
       <c r="A42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>24</v>
@@ -3622,22 +3622,22 @@
         <v>4</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="60">
       <c r="A43" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C43" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>24</v>
@@ -3649,20 +3649,20 @@
         <v>4</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" ht="90">
       <c r="A44" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>23</v>
@@ -3674,22 +3674,22 @@
         <v>4</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90">
       <c r="A45" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>23</v>
@@ -3701,20 +3701,20 @@
         <v>4</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="75">
       <c r="A46" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>437</v>
-      </c>
       <c r="C46" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>23</v>
@@ -3726,20 +3726,20 @@
         <v>4</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" ht="75">
       <c r="A47" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>22</v>
@@ -3751,20 +3751,20 @@
         <v>4</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="75">
       <c r="A48" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>22</v>
@@ -3776,20 +3776,20 @@
         <v>4</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="135">
       <c r="A49" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>516</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>22</v>
@@ -3801,23 +3801,23 @@
         <v>4</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" ht="90">
       <c r="A50" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>4</v>
@@ -3826,23 +3826,23 @@
         <v>10</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="60">
       <c r="A51" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>4</v>
@@ -3851,23 +3851,23 @@
         <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="45">
       <c r="A52" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>477</v>
-      </c>
       <c r="C52" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>4</v>
@@ -3876,20 +3876,20 @@
         <v>12</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="45">
       <c r="A53" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>22</v>
@@ -3901,20 +3901,20 @@
         <v>4</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="60">
       <c r="A54" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>22</v>
@@ -3926,20 +3926,20 @@
         <v>4</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="60">
       <c r="A55" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>99</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>22</v>
@@ -3951,22 +3951,22 @@
         <v>4</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A56" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>22</v>
@@ -3978,22 +3978,22 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H56" s="28"/>
       <c r="I56" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A57" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>22</v>
@@ -4005,22 +4005,22 @@
         <v>4</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A58" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>22</v>
@@ -4032,22 +4032,22 @@
         <v>4</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A59" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>22</v>
@@ -4059,22 +4059,22 @@
         <v>4</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H59" s="28"/>
       <c r="I59" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A60" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>22</v>
@@ -4086,22 +4086,22 @@
         <v>4</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H60" s="28"/>
       <c r="I60" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A61" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>22</v>
@@ -4113,22 +4113,22 @@
         <v>4</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H61" s="28"/>
       <c r="I61" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A62" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>22</v>
@@ -4140,22 +4140,22 @@
         <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H62" s="28"/>
       <c r="I62" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A63" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>22</v>
@@ -4167,22 +4167,22 @@
         <v>4</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H63" s="28"/>
       <c r="I63" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A64" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>22</v>
@@ -4194,22 +4194,22 @@
         <v>4</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H64" s="28"/>
       <c r="I64" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A65" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>22</v>
@@ -4221,22 +4221,22 @@
         <v>4</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H65" s="28"/>
       <c r="I65" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A66" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>22</v>
@@ -4248,22 +4248,22 @@
         <v>4</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H66" s="28"/>
       <c r="I66" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A67" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>22</v>
@@ -4275,22 +4275,22 @@
         <v>4</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H67" s="28"/>
       <c r="I67" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="45">
       <c r="A68" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D68" s="33" t="s">
         <v>22</v>
@@ -4302,20 +4302,20 @@
         <v>4</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H68" s="33"/>
       <c r="I68" s="36"/>
     </row>
     <row r="69" spans="1:9" ht="60">
       <c r="A69" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>21</v>
@@ -4327,22 +4327,22 @@
         <v>4</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="90">
       <c r="A70" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>21</v>
@@ -4354,22 +4354,22 @@
         <v>4</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="60">
       <c r="A71" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>21</v>
@@ -4381,22 +4381,22 @@
         <v>4</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="90">
       <c r="A72" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>21</v>
@@ -4408,24 +4408,24 @@
         <v>3</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I72" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="45">
       <c r="A73" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>17</v>
@@ -4437,22 +4437,22 @@
         <v>4</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30">
       <c r="A74" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>17</v>
@@ -4464,20 +4464,20 @@
         <v>4</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" ht="30">
       <c r="A75" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>17</v>
@@ -4489,24 +4489,24 @@
         <v>3</v>
       </c>
       <c r="G75" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I75" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="45">
       <c r="A76" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>17</v>
@@ -4518,20 +4518,20 @@
         <v>4</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" ht="45">
       <c r="A77" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>17</v>
@@ -4543,20 +4543,20 @@
         <v>4</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" ht="90">
       <c r="A78" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>17</v>
@@ -4568,24 +4568,24 @@
         <v>3</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I78" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="60">
       <c r="A79" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>17</v>
@@ -4597,24 +4597,24 @@
         <v>3</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I79" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30">
       <c r="A80" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>20</v>
@@ -4626,24 +4626,24 @@
         <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H80" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I80" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30">
       <c r="A81" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>20</v>
@@ -4655,22 +4655,22 @@
         <v>3</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>20</v>
@@ -4682,22 +4682,22 @@
         <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="30">
       <c r="A83" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>20</v>
@@ -4709,22 +4709,22 @@
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="30">
       <c r="A84" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>20</v>
@@ -4736,22 +4736,22 @@
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>20</v>
@@ -4763,22 +4763,22 @@
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>20</v>
@@ -4790,24 +4790,24 @@
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I86" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30">
       <c r="A87" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>20</v>
@@ -4819,22 +4819,22 @@
         <v>3</v>
       </c>
       <c r="G87" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="30">
       <c r="A88" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>20</v>
@@ -4846,22 +4846,22 @@
         <v>3</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" ht="30">
       <c r="A89" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>20</v>
@@ -4873,22 +4873,22 @@
         <v>3</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="30">
       <c r="A90" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>20</v>
@@ -4900,22 +4900,22 @@
         <v>3</v>
       </c>
       <c r="G90" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>20</v>
@@ -4927,22 +4927,22 @@
         <v>3</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" ht="30">
       <c r="A92" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>20</v>
@@ -4954,24 +4954,24 @@
         <v>3</v>
       </c>
       <c r="G92" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I92" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="30">
       <c r="A93" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>20</v>
@@ -4983,22 +4983,22 @@
         <v>3</v>
       </c>
       <c r="G93" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>20</v>
@@ -5010,22 +5010,22 @@
         <v>3</v>
       </c>
       <c r="G94" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="30">
       <c r="A95" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>20</v>
@@ -5037,22 +5037,22 @@
         <v>3</v>
       </c>
       <c r="G95" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>20</v>
@@ -5064,22 +5064,22 @@
         <v>3</v>
       </c>
       <c r="G96" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>20</v>
@@ -5091,22 +5091,22 @@
         <v>3</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" ht="30">
       <c r="A98" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>20</v>
@@ -5118,24 +5118,24 @@
         <v>3</v>
       </c>
       <c r="G98" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H98" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I98" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="30">
       <c r="A99" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>20</v>
@@ -5147,22 +5147,22 @@
         <v>3</v>
       </c>
       <c r="G99" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" ht="30">
       <c r="A100" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>20</v>
@@ -5174,22 +5174,22 @@
         <v>3</v>
       </c>
       <c r="G100" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:9" ht="30">
       <c r="A101" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>20</v>
@@ -5201,22 +5201,22 @@
         <v>3</v>
       </c>
       <c r="G101" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H101" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" ht="30">
       <c r="A102" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>20</v>
@@ -5228,22 +5228,22 @@
         <v>3</v>
       </c>
       <c r="G102" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H102" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" ht="30">
       <c r="A103" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>20</v>
@@ -5255,22 +5255,22 @@
         <v>3</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" ht="30">
       <c r="A104" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>20</v>
@@ -5282,22 +5282,22 @@
         <v>3</v>
       </c>
       <c r="G104" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H104" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="30">
       <c r="A105" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>20</v>
@@ -5309,22 +5309,22 @@
         <v>3</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="30">
       <c r="A106" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>20</v>
@@ -5336,22 +5336,22 @@
         <v>3</v>
       </c>
       <c r="G106" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H106" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:9" ht="30">
       <c r="A107" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>20</v>
@@ -5363,22 +5363,22 @@
         <v>3</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I107" s="19"/>
     </row>
     <row r="108" spans="1:9" ht="30">
       <c r="A108" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>20</v>
@@ -5390,22 +5390,22 @@
         <v>3</v>
       </c>
       <c r="G108" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" ht="30">
       <c r="A109" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>20</v>
@@ -5417,22 +5417,22 @@
         <v>3</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:9" ht="30">
       <c r="A110" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>20</v>
@@ -5444,22 +5444,22 @@
         <v>3</v>
       </c>
       <c r="G110" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I110" s="19"/>
     </row>
     <row r="111" spans="1:9" ht="30">
       <c r="A111" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>20</v>
@@ -5471,22 +5471,22 @@
         <v>3</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I111" s="19"/>
     </row>
     <row r="112" spans="1:9" ht="30">
       <c r="A112" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>20</v>
@@ -5498,22 +5498,22 @@
         <v>3</v>
       </c>
       <c r="G112" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" ht="45">
       <c r="A113" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>19</v>
@@ -5525,20 +5525,20 @@
         <v>4</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" ht="45">
       <c r="A114" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>19</v>
@@ -5550,23 +5550,23 @@
         <v>4</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" ht="30">
       <c r="A115" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="D115" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>12</v>
@@ -5575,20 +5575,20 @@
         <v>4</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="75">
       <c r="A116" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>19</v>
@@ -5600,24 +5600,24 @@
         <v>3</v>
       </c>
       <c r="G116" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H116" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H116" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I116" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="75">
       <c r="A117" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>19</v>
@@ -5629,24 +5629,24 @@
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H117" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H117" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I117" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="75">
       <c r="A118" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>19</v>
@@ -5658,24 +5658,24 @@
         <v>3</v>
       </c>
       <c r="G118" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H118" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I118" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="75">
       <c r="A119" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>19</v>
@@ -5687,24 +5687,24 @@
         <v>3</v>
       </c>
       <c r="G119" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H119" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I119" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="45">
       <c r="A120" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>17</v>
@@ -5716,20 +5716,20 @@
         <v>4</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:9" ht="45">
       <c r="A121" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>17</v>
@@ -5741,20 +5741,20 @@
         <v>4</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" ht="45">
       <c r="A122" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>626</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>17</v>
@@ -5766,22 +5766,22 @@
         <v>4</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="75">
       <c r="A131" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>18</v>
@@ -5793,22 +5793,22 @@
         <v>3</v>
       </c>
       <c r="G131" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H131" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" ht="60">
       <c r="A132" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>18</v>
@@ -5820,22 +5820,22 @@
         <v>4</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="60">
       <c r="A133" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>18</v>
@@ -5847,22 +5847,22 @@
         <v>3</v>
       </c>
       <c r="G133" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H133" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" ht="75">
       <c r="A134" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>18</v>
@@ -5877,19 +5877,19 @@
         <v>2</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I134" s="19"/>
     </row>
     <row r="135" spans="1:9" ht="75">
       <c r="A135" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>18</v>
@@ -5901,24 +5901,24 @@
         <v>3</v>
       </c>
       <c r="G135" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H135" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H135" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I135" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="75">
       <c r="A136" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>18</v>
@@ -5930,24 +5930,24 @@
         <v>3</v>
       </c>
       <c r="G136" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H136" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H136" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I136" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="75">
       <c r="A137" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>18</v>
@@ -5959,24 +5959,24 @@
         <v>3</v>
       </c>
       <c r="G137" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H137" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H137" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I137" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="60">
       <c r="A138" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>18</v>
@@ -5988,24 +5988,24 @@
         <v>3</v>
       </c>
       <c r="G138" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H138" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H138" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I138" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="30">
       <c r="A139" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>18</v>
@@ -6017,22 +6017,22 @@
         <v>3</v>
       </c>
       <c r="G139" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H139" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" ht="45">
       <c r="A140" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>18</v>
@@ -6044,22 +6044,22 @@
         <v>7</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="45">
       <c r="A141" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>18</v>
@@ -6071,19 +6071,19 @@
         <v>7</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:9" ht="60">
       <c r="A142" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B142" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D142" s="29" t="s">
         <v>18</v>
@@ -6095,20 +6095,20 @@
         <v>6</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="32"/>
     </row>
     <row r="143" spans="1:9" ht="30">
       <c r="A143" s="29" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D143" s="29" t="s">
         <v>18</v>
@@ -6120,22 +6120,22 @@
         <v>7</v>
       </c>
       <c r="G143" s="29" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H143" s="29"/>
       <c r="I143" s="32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="29" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D144" s="29" t="s">
         <v>18</v>
@@ -6144,25 +6144,25 @@
         <v>8</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G144" s="29" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H144" s="29"/>
       <c r="I144" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="45">
       <c r="A145" s="29" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D145" s="29" t="s">
         <v>18</v>
@@ -6174,22 +6174,22 @@
         <v>7</v>
       </c>
       <c r="G145" s="29" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H145" s="29"/>
       <c r="I145" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="30">
       <c r="A146" s="29" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D146" s="29" t="s">
         <v>18</v>
@@ -6201,22 +6201,22 @@
         <v>3</v>
       </c>
       <c r="G146" s="29" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H146" s="29"/>
       <c r="I146" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="30">
       <c r="A147" s="29" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D147" s="29" t="s">
         <v>18</v>
@@ -6228,22 +6228,22 @@
         <v>7</v>
       </c>
       <c r="G147" s="29" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H147" s="29"/>
       <c r="I147" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="30">
       <c r="A148" s="29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D148" s="29" t="s">
         <v>18</v>
@@ -6255,22 +6255,22 @@
         <v>7</v>
       </c>
       <c r="G148" s="29" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H148" s="29"/>
       <c r="I148" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="45">
       <c r="A149" s="29" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D149" s="29" t="s">
         <v>18</v>
@@ -6282,22 +6282,22 @@
         <v>1</v>
       </c>
       <c r="G149" s="29" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H149" s="29"/>
       <c r="I149" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="45">
       <c r="A150" s="29" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D150" s="29" t="s">
         <v>18</v>
@@ -6309,22 +6309,22 @@
         <v>1</v>
       </c>
       <c r="G150" s="29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H150" s="29"/>
       <c r="I150" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="30">
       <c r="A151" s="29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C151" s="31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D151" s="29" t="s">
         <v>18</v>
@@ -6336,22 +6336,22 @@
         <v>7</v>
       </c>
       <c r="G151" s="29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H151" s="29"/>
       <c r="I151" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="60">
       <c r="A152" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B152" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>17</v>
@@ -6363,22 +6363,22 @@
         <v>6</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H152" s="33"/>
       <c r="I152" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="45">
       <c r="A153" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>16</v>
@@ -6390,22 +6390,22 @@
         <v>4</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I153" s="18"/>
     </row>
     <row r="154" spans="1:9" ht="30">
       <c r="A154" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>16</v>
@@ -6417,20 +6417,20 @@
         <v>4</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="18"/>
     </row>
     <row r="155" spans="1:9" ht="30">
       <c r="A155" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>16</v>
@@ -6442,20 +6442,20 @@
         <v>4</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="18"/>
     </row>
     <row r="156" spans="1:9" ht="30">
       <c r="A156" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>16</v>
@@ -6467,20 +6467,20 @@
         <v>4</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="18"/>
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>16</v>
@@ -6492,20 +6492,20 @@
         <v>4</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H157" s="6"/>
       <c r="I157" s="18"/>
     </row>
     <row r="158" spans="1:9" ht="45">
       <c r="A158" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>16</v>
@@ -6517,20 +6517,20 @@
         <v>4</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="18"/>
     </row>
     <row r="159" spans="1:9" ht="60">
       <c r="A159" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>15</v>
@@ -6542,24 +6542,24 @@
         <v>3</v>
       </c>
       <c r="G159" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H159" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H159" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I159" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="30">
       <c r="A160" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>15</v>
@@ -6571,24 +6571,24 @@
         <v>3</v>
       </c>
       <c r="G160" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H160" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H160" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I160" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>14</v>
@@ -6597,23 +6597,23 @@
         <v>8</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="18"/>
     </row>
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>13</v>
@@ -6625,22 +6625,22 @@
         <v>2</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H162" s="6"/>
       <c r="I162" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>13</v>
@@ -6649,23 +6649,23 @@
         <v>8</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H163" s="6"/>
       <c r="I163" s="18"/>
     </row>
     <row r="164" spans="1:9" ht="75">
       <c r="A164" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>13</v>
@@ -6677,22 +6677,22 @@
         <v>2</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="45">
       <c r="A165" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B165" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>13</v>
@@ -6704,22 +6704,22 @@
         <v>1</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H165" s="6"/>
       <c r="I165" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="60">
       <c r="A166" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>13</v>
@@ -6731,22 +6731,22 @@
         <v>1</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H166" s="6"/>
       <c r="I166" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="75">
       <c r="A167" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>13</v>
@@ -6758,22 +6758,22 @@
         <v>1</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H167" s="6"/>
       <c r="I167" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="45">
       <c r="A168" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>13</v>
@@ -6785,22 +6785,22 @@
         <v>0</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H168" s="6"/>
       <c r="I168" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="24" customFormat="1" ht="120">
       <c r="A169" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="C169" s="26" t="s">
         <v>454</v>
-      </c>
-      <c r="B169" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>456</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>13</v>
@@ -6809,28 +6809,28 @@
         <v>8</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="24" customFormat="1" ht="45">
       <c r="A170" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C170" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="B170" s="26" t="s">
+      <c r="D170" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>9</v>
@@ -6839,25 +6839,25 @@
         <v>3</v>
       </c>
       <c r="G170" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H170" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="I170" s="22"/>
     </row>
     <row r="171" spans="1:9" s="24" customFormat="1" ht="60">
       <c r="A171" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="C171" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="B171" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="C171" s="26" t="s">
-        <v>525</v>
-      </c>
       <c r="D171" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>9</v>
@@ -6866,27 +6866,27 @@
         <v>3</v>
       </c>
       <c r="G171" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H171" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="H171" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="I171" s="37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="24" customFormat="1" ht="45">
       <c r="A172" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="C172" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="B172" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="C172" s="26" t="s">
-        <v>528</v>
-      </c>
       <c r="D172" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>9</v>
@@ -6895,27 +6895,27 @@
         <v>3</v>
       </c>
       <c r="G172" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H172" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="H172" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="I172" s="37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="24" customFormat="1" ht="30">
       <c r="A173" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="C173" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="B173" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="C173" s="26" t="s">
-        <v>531</v>
-      </c>
       <c r="D173" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>9</v>
@@ -6924,25 +6924,25 @@
         <v>3</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I173" s="22"/>
     </row>
     <row r="174" spans="1:9" s="24" customFormat="1" ht="45">
       <c r="A174" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="C174" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="B174" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>536</v>
-      </c>
       <c r="D174" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>9</v>
@@ -6951,25 +6951,25 @@
         <v>3</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I174" s="22"/>
     </row>
     <row r="175" spans="1:9" s="24" customFormat="1" ht="45">
       <c r="A175" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="B175" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C175" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="D175" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="C175" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>4</v>
@@ -6978,7 +6978,7 @@
         <v>10</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="22"/>
@@ -7026,50 +7026,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" t="s">
         <v>386</v>
-      </c>
-      <c r="B1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>377</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>379</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>381</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>383</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
